--- a/paper/Data_for_application_old.xlsx
+++ b/paper/Data_for_application_old.xlsx
@@ -385,7 +385,7 @@
   <dimension ref="A1:H242"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I1" sqref="I1:K1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
